--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/37/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/37/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.9816981698169818</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.5005005005006</v>
+        <v>1824.232423242324</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0967967967967968</v>
+        <v>0.07067706770677068</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2952952952952953</v>
+        <v>0.04710471047104711</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1333.333333333333</v>
+        <v>1752.595259525953</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>422.4224224224225</v>
+        <v>115.2115211521152</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.8018018018018</v>
+        <v>676.0918091809181</v>
       </c>
     </row>
   </sheetData>
